--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\21Gene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20443395-F71E-425F-8D79-FB3C89F148DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A021DC-1595-46E5-A881-D952A70C4473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyname" sheetId="1" r:id="rId1"/>
     <sheet name="fileFormat" sheetId="2" r:id="rId2"/>
-    <sheet name="構造化Para" sheetId="3" r:id="rId3"/>
-    <sheet name="memo" sheetId="5" r:id="rId4"/>
+    <sheet name="サンプル画面" sheetId="6" r:id="rId3"/>
+    <sheet name="構造化Para" sheetId="3" r:id="rId4"/>
+    <sheet name="memo" sheetId="5" r:id="rId5"/>
+    <sheet name="レイアウト" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -170,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -846,6 +848,4358 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76129</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187729</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E3FDED-7244-428E-830E-D0BDC546A899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676204" y="488949"/>
+          <a:ext cx="3312000" cy="2959101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8E844A-041E-DD28-6CDA-EFEDB6A86028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809626" y="571499"/>
+          <a:ext cx="1752600" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PROLIFERATION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36B9167-530B-4DA1-9A3D-3033A10C7F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="936624" y="1028699"/>
+          <a:ext cx="2854326" cy="1809751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ki-67</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STK15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Survivin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cyclin B1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MYBL2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5780C3F8-A30D-EFAE-002C-298FC21F82E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1066800"/>
+          <a:ext cx="1628775" cy="168275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A9F27E-80CB-4A13-87E0-A84AF29D96BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="1409700"/>
+          <a:ext cx="1631950" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E66C43E-F324-413E-A1FC-2EA99532176E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="2524125"/>
+          <a:ext cx="1631950" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF356E3-5ABA-4465-AB9B-198DB81A612D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="2162175"/>
+          <a:ext cx="1631950" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36F717B-16BC-4E24-9F42-3C18DB278DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="1781175"/>
+          <a:ext cx="1631950" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9C4EAE-3738-4086-93B9-F2EAC8A0B97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="485776"/>
+          <a:ext cx="3244850" cy="1819274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180977</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22201315-0D3F-4992-BA79-07D4210FFA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181477" y="568325"/>
+          <a:ext cx="1752600" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HER2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F760355-1323-41E3-8ABD-A6B65882ABDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="1025526"/>
+          <a:ext cx="2854326" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GRB7 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HER2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B65457-1C21-4128-AA17-77384851EC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575301" y="1082676"/>
+          <a:ext cx="1625600" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388B33B6-AE4A-4FBD-BA0B-66642F201053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575301" y="1425576"/>
+          <a:ext cx="1625600" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76129</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187729</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386FFACB-2693-47A9-9C81-13F9B0E2DBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676204" y="3606801"/>
+          <a:ext cx="3312000" cy="2460624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6352</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9E3443-B2B7-47EB-AD08-459E0CAE24C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806452" y="3692525"/>
+          <a:ext cx="1755775" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ESTROGEN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187326</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2537F6D9-900D-4720-9A84-F6D08B02254C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="4152900"/>
+          <a:ext cx="2854326" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PGR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bcl2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCUBE2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D379DE5E-4344-4FF5-BB18-7DBCD0F23F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="4191001"/>
+          <a:ext cx="1631950" cy="168275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905AF4E1-360C-4A0E-A627-A8576AB360F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="4533901"/>
+          <a:ext cx="1631950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>206376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635BD3A9-7622-4071-B028-48D7AB78EF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="5283201"/>
+          <a:ext cx="1631950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676DF335-6BF6-4F6A-9310-29D372E5B062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="4902201"/>
+          <a:ext cx="1631950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B6F040-25A3-495B-AADB-4ED551CDB47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4759326"/>
+          <a:ext cx="3200400" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GSTM1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0327A2B0-F13C-49AA-801A-E40EFC57F83B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="4816475"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BEBC4C-7436-442E-BE5E-C128657BF937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="5226050"/>
+          <a:ext cx="3200400" cy="311149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CD68</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5744228-4674-4AE2-B047-ED732DE30B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="5286374"/>
+          <a:ext cx="1628775" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F38BF5F-5CA8-4EC1-94C7-7C1D060CB0E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="5721350"/>
+          <a:ext cx="3200400" cy="311149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BAG1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFED9C5D-4E1F-45CB-A5CC-4C77B09EC118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572126" y="5781674"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB7138D-C239-4F7F-A7E3-957096124590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="2600324"/>
+          <a:ext cx="3251200" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187327</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>149227</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD112622-2E95-4E50-A305-592CDD1DECC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4187827" y="2689224"/>
+          <a:ext cx="1762125" cy="336551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>INVASION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>168276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149B83FD-36D4-464C-9EEE-AFA46D2957CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="3143249"/>
+          <a:ext cx="2854326" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stromelysin 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cathepsin L2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC46EF49-7138-4BB4-B6DA-671A812D3F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562601" y="3197225"/>
+          <a:ext cx="1638300" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F2577F-0683-4E29-82A7-A1A2B4AA38D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5559426" y="3530600"/>
+          <a:ext cx="1641475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AB3E0F-F728-465F-AF52-A398A7481EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7464425" y="3524250"/>
+          <a:ext cx="3251200" cy="2492375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>149227</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>101602</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFA3968-AD3B-49F8-9DEB-61419376E093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7550152" y="3609975"/>
+          <a:ext cx="1752600" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>REFERENCE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="TextBox 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6501137C-2385-457E-A013-E1D9E37BD396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="4067175"/>
+          <a:ext cx="2857501" cy="1809751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Beta-action </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAPDH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPLPO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GUS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TFRC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3CDB92-CA93-4B30-9029-05FC89C1474E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="4102101"/>
+          <a:ext cx="1628775" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0016306-63FD-457B-B5B5-02F8E6BF5F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="4445001"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1561D4C8-BB4C-47D6-BBFF-EDFA028E751E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="5559426"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC02E7-CC9E-453A-8918-21444E7736B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="5197476"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40556C09-646F-4D50-8918-5443595F19AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="4816476"/>
+          <a:ext cx="1628775" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56647DE9-772E-4D7E-850E-F640B2DD48DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159250" y="1743075"/>
+          <a:ext cx="3105150" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GroupScore</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(min 8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC49132-D5BE-487F-8FE1-06F4C61EF074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600701" y="1885949"/>
+          <a:ext cx="1600200" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFD1B96-49D9-4626-A5DE-01F497EAF699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="2828925"/>
+          <a:ext cx="3101975" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GroupScore</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(min 6.5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10322FF7-AF7C-4E00-9F99-FE9478EB67DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2974974"/>
+          <a:ext cx="1600200" cy="184151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA59C5AF-7704-410D-B0E2-088AC7DD7909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="5607050"/>
+          <a:ext cx="3105150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GroupScore</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894C4420-613F-4E70-B6FB-F5EE6C840CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5657849"/>
+          <a:ext cx="1600200" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C350D5F6-F01A-4E92-B916-FF4FAAB5B6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="2701926"/>
+          <a:ext cx="3248025" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>92077</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BB8386-C131-4E63-8B1F-A21E5FF67682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543802" y="2790825"/>
+          <a:ext cx="1749425" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rsu</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>53976</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E042375-C86F-4A82-9272-5D8D5C6A8B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629651" y="2905126"/>
+          <a:ext cx="1625600" cy="168275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC388EAE-4BA0-468C-B125-CE48D7C0101F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="3819525"/>
+          <a:ext cx="3101975" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GroupScore</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F16489E-AF7B-45E9-BAD2-C4B4B73078F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600701" y="3867149"/>
+          <a:ext cx="1600200" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76129</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187729</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9405ED1-8680-4071-BF5E-16D62D5F1C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676204" y="485774"/>
+          <a:ext cx="3312000" cy="2962276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B25ACB-2926-4ED8-A9C8-1678A35946A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="482601"/>
+          <a:ext cx="3248025" cy="1822449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76129</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187729</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3088A83-BE35-4F9B-BF36-8F156DDCD766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676204" y="3609976"/>
+          <a:ext cx="3312000" cy="2454274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CD382A-A205-400C-89E2-BA1A6FD0C168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4759326"/>
+          <a:ext cx="3200400" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF936D9-DEC4-4EE3-B2FA-4C2DD8C7D0E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="5229225"/>
+          <a:ext cx="3200400" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52EFEC5-4A35-44C2-BA15-938721FF0436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="5724525"/>
+          <a:ext cx="3200400" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF6FAC8-FA1D-427A-840D-09C9557062A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="2603499"/>
+          <a:ext cx="3248025" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909E6439-4303-4539-8B0F-93FA0A877037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="3524250"/>
+          <a:ext cx="3248025" cy="2492375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE639C2A-25CE-4646-B3F8-39C4613A1111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="4064000"/>
+          <a:ext cx="2857501" cy="1809751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2F8BE3-D8F4-4985-8E2C-E4FD9149E7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="2701926"/>
+          <a:ext cx="3251200" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>92077</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEE3392-169F-4A6F-BD3D-31A9C1DD4F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7540627" y="2787650"/>
+          <a:ext cx="1752600" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1142,7 +5496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1404,11 +5758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1429,127 +5783,169 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -1558,7 +5954,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991BA4DD-BBA9-41BA-9B7A-96A9B195AD13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BL17" sqref="BL17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1621,12 +6034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1640,4 +6053,21 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13496BDB-53B8-469B-AC48-AF862E7619F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>